--- a/InterestRates/USInterestRate.xlsx
+++ b/InterestRates/USInterestRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayanmirza/FinancialAnalysis/InterestRates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44784102-0D7C-8D40-B9FF-836FF35F25A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4679F9C8-A92C-1949-9BDD-0E65A32E7ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="4380" windowWidth="16160" windowHeight="10240" xr2:uid="{FF451FD4-DA19-FA4F-B6ED-F3A251B5D387}"/>
+    <workbookView xWindow="32760" yWindow="20" windowWidth="16160" windowHeight="10240" xr2:uid="{FB9FC1D6-BD3A-FF48-99D8-647ADA01C35F}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD74445F-A75D-084A-B0A9-B02E88736A93}">
-  <dimension ref="A1:B72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18E7DDA-75BA-3149-86B8-F1BB213B7EA2}">
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,489 +496,969 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>43466</v>
+        <v>41640</v>
       </c>
       <c r="B12" s="2">
-        <v>2.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>43497</v>
+        <v>41671</v>
       </c>
       <c r="B13" s="2">
-        <v>2.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>43525</v>
+        <v>41699</v>
       </c>
       <c r="B14" s="2">
-        <v>2.41</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>43556</v>
+        <v>41730</v>
       </c>
       <c r="B15" s="2">
-        <v>2.42</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>43586</v>
+        <v>41760</v>
       </c>
       <c r="B16" s="2">
-        <v>2.39</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>43617</v>
+        <v>41791</v>
       </c>
       <c r="B17" s="2">
-        <v>2.38</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>43647</v>
+        <v>41821</v>
       </c>
       <c r="B18" s="2">
-        <v>2.4</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>43678</v>
+        <v>41852</v>
       </c>
       <c r="B19" s="2">
-        <v>2.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>43709</v>
+        <v>41883</v>
       </c>
       <c r="B20" s="2">
-        <v>2.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>43739</v>
+        <v>41913</v>
       </c>
       <c r="B21" s="2">
-        <v>1.83</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>43770</v>
+        <v>41944</v>
       </c>
       <c r="B22" s="2">
-        <v>1.55</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>43800</v>
+        <v>41974</v>
       </c>
       <c r="B23" s="2">
-        <v>1.55</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>43831</v>
+        <v>42005</v>
       </c>
       <c r="B24" s="2">
-        <v>1.55</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>43862</v>
+        <v>42036</v>
       </c>
       <c r="B25" s="2">
-        <v>1.58</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>43891</v>
+        <v>42064</v>
       </c>
       <c r="B26" s="2">
-        <v>0.65</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>43922</v>
+        <v>42095</v>
       </c>
       <c r="B27" s="2">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>43952</v>
+        <v>42125</v>
       </c>
       <c r="B28" s="2">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>43983</v>
+        <v>42156</v>
       </c>
       <c r="B29" s="2">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>44013</v>
+        <v>42186</v>
       </c>
       <c r="B30" s="2">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>44044</v>
+        <v>42217</v>
       </c>
       <c r="B31" s="2">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>44075</v>
+        <v>42248</v>
       </c>
       <c r="B32" s="2">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>44105</v>
+        <v>42278</v>
       </c>
       <c r="B33" s="2">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>44136</v>
+        <v>42309</v>
       </c>
       <c r="B34" s="2">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>44166</v>
+        <v>42339</v>
       </c>
       <c r="B35" s="2">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>44197</v>
+        <v>42370</v>
       </c>
       <c r="B36" s="2">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>44228</v>
+        <v>42401</v>
       </c>
       <c r="B37" s="2">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>44256</v>
+        <v>42430</v>
       </c>
       <c r="B38" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>44287</v>
+        <v>42461</v>
       </c>
       <c r="B39" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>44317</v>
+        <v>42491</v>
       </c>
       <c r="B40" s="2">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>44348</v>
+        <v>42522</v>
       </c>
       <c r="B41" s="2">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>44378</v>
+        <v>42552</v>
       </c>
       <c r="B42" s="2">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>44409</v>
+        <v>42583</v>
       </c>
       <c r="B43" s="2">
-        <v>0.09</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>44440</v>
+        <v>42614</v>
       </c>
       <c r="B44" s="2">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>44470</v>
+        <v>42644</v>
       </c>
       <c r="B45" s="2">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>44501</v>
+        <v>42675</v>
       </c>
       <c r="B46" s="2">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>44531</v>
+        <v>42705</v>
       </c>
       <c r="B47" s="2">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>44562</v>
+        <v>42736</v>
       </c>
       <c r="B48" s="2">
-        <v>0.08</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>44593</v>
+        <v>42767</v>
       </c>
       <c r="B49" s="2">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>44621</v>
+        <v>42795</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>44652</v>
+        <v>42826</v>
       </c>
       <c r="B51" s="2">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>44682</v>
+        <v>42856</v>
       </c>
       <c r="B52" s="2">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>44713</v>
+        <v>42887</v>
       </c>
       <c r="B53" s="2">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>44743</v>
+        <v>42917</v>
       </c>
       <c r="B54" s="2">
-        <v>1.68</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>44774</v>
+        <v>42948</v>
       </c>
       <c r="B55" s="2">
-        <v>2.33</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>44805</v>
+        <v>42979</v>
       </c>
       <c r="B56" s="2">
-        <v>2.56</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>44835</v>
+        <v>43009</v>
       </c>
       <c r="B57" s="2">
-        <v>3.08</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>44866</v>
+        <v>43040</v>
       </c>
       <c r="B58" s="2">
-        <v>3.78</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>44896</v>
+        <v>43070</v>
       </c>
       <c r="B59" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>44927</v>
+        <v>43101</v>
       </c>
       <c r="B60" s="2">
-        <v>4.33</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>44958</v>
+        <v>43132</v>
       </c>
       <c r="B61" s="2">
-        <v>4.57</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>44986</v>
+        <v>43160</v>
       </c>
       <c r="B62" s="2">
-        <v>4.6500000000000004</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>45017</v>
+        <v>43191</v>
       </c>
       <c r="B63" s="2">
-        <v>4.83</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>45047</v>
+        <v>43221</v>
       </c>
       <c r="B64" s="2">
-        <v>5.0599999999999996</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>45078</v>
+        <v>43252</v>
       </c>
       <c r="B65" s="2">
-        <v>5.08</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>45108</v>
+        <v>43282</v>
       </c>
       <c r="B66" s="2">
-        <v>5.12</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>45139</v>
+        <v>43313</v>
       </c>
       <c r="B67" s="2">
-        <v>5.33</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>43344</v>
       </c>
       <c r="B68" s="2">
-        <v>5.33</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>45200</v>
+        <v>43374</v>
       </c>
       <c r="B69" s="2">
-        <v>5.33</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>45231</v>
+        <v>43405</v>
       </c>
       <c r="B70" s="2">
-        <v>5.33</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>45261</v>
+        <v>43435</v>
       </c>
       <c r="B71" s="2">
-        <v>5.33</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B98" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B99" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B119" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B120" s="2">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B121" s="2">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B122" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B123" s="2">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B124" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B125" s="2">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B126" s="2">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B127" s="2">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B128" s="2">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B129" s="2">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B130" s="2">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B131" s="2">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
         <v>45292</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B132" s="2">
         <v>5.33</v>
       </c>
     </row>
